--- a/log/PSOELM_extracted_result/PSOELM_slp14_result/PSOELM_slp14_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp14_result/PSOELM_slp14_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp14_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp14_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,9 +120,6 @@
     <t>1 4 5 8 10 13 14 15 16 17</t>
   </si>
   <si>
-    <t>best experiment</t>
-  </si>
-  <si>
     <t>1 2 3 5 6 12 15</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>1 8 9 11 13 14 15 16 17</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -785,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>476</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
         <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
         <v>318</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
         <v>371</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
         <v>238</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>467</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>364</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>366</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>384</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>324</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
         <v>483</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>290</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1818,7 @@
         <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1858,10 +1858,10 @@
         <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1921,7 +1921,7 @@
         <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>416</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
         <v>245</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
         <v>330</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>455</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
         <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
         <v>143</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>228</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>207</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2161,7 +2161,7 @@
         <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>435</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,7 +2221,7 @@
         <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,7 +2241,7 @@
         <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>412</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
         <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>490</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>502</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
         <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
         <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2599,7 +2599,7 @@
         <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
         <v>491</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>314</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,7 +2699,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,7 +2739,7 @@
         <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
